--- a/biology/Médecine/1519_en_santé_et_médecine/1519_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1519_en_santé_et_médecine/1519_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1519_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1519_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1519 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1519_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1519_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12 janvier : Maximilien d'Autriche meurt d'une troisième attaque d'apoplexie[1].
-Les chirurgiens de Paris sont confirmés dans les privilèges qui leur ont été accordés de longue date et qui sont « pareils à ceux de l'Université, et à ceux des médecins[2] ».
-Les consuls de Lyon, en conflit avec les artisans de la ville, réorganisent le « garbeau de l'épicerie », c'est-à-dire le contrôle du commerce des épices, et ils en donnent la charge à l'apothicaire Guillaume Gautheret[3].
-1518-1519 : peste à Loches, en Touraine[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12 janvier : Maximilien d'Autriche meurt d'une troisième attaque d'apoplexie.
+Les chirurgiens de Paris sont confirmés dans les privilèges qui leur ont été accordés de longue date et qui sont « pareils à ceux de l'Université, et à ceux des médecins ».
+Les consuls de Lyon, en conflit avec les artisans de la ville, réorganisent le « garbeau de l'épicerie », c'est-à-dire le contrôle du commerce des épices, et ils en donnent la charge à l'apothicaire Guillaume Gautheret.
+1518-1519 : peste à Loches, en Touraine.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1519_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1519_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Linacre (1460-1524) faut paraître sa traduction du Methodus medendi de Galien (IIe s.), « texte majeur, qui aura un impact profond sur la réflexion et l'écriture thérapeutiques au XVIe siècle[5],[6] ».
-Impression à Augsbourg par Sigismund Grim, sous le titre de Liber theoricae nec non practicae Alsaharavii (« Livre de théorie et de pratique d'Al-Zahrawi »), de la traduction latine de l'Al-Tasrif, d'Abulcasis (c. 940-c. 1013[7]).
-Ulrich von Hutten (1488-1523), qui a contracté la syphilis en 1508[8], publie le De guaiaci medicina et morbo gallico, consacré au « traitement du mal français par le bois de gaïac[9] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Linacre (1460-1524) faut paraître sa traduction du Methodus medendi de Galien (IIe s.), « texte majeur, qui aura un impact profond sur la réflexion et l'écriture thérapeutiques au XVIe siècle, ».
+Impression à Augsbourg par Sigismund Grim, sous le titre de Liber theoricae nec non practicae Alsaharavii (« Livre de théorie et de pratique d'Al-Zahrawi »), de la traduction latine de l'Al-Tasrif, d'Abulcasis (c. 940-c. 1013).
+Ulrich von Hutten (1488-1523), qui a contracté la syphilis en 1508, publie le De guaiaci medicina et morbo gallico, consacré au « traitement du mal français par le bois de gaïac ».</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1519_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1519_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>22 novembre : Johann Crato von Krafftheim (de) (mort en 1585), médecin allemand, praticien à Vratislavie, sa ville natale, puis au service des empereurs Ferdinand Ier et Maximilien II[10].
-Pierre Quthe (mort après 1588), apothicaire parisien dont le musée du Louvre détient un portrait peint par François Clouet en 1562[11].
-Vers 1519 : Sébastien Colin (mort dans les années 1570), médecin, auteur d'une Déclaration des abus et tromperies que font les apothicaires[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22 novembre : Johann Crato von Krafftheim (de) (mort en 1585), médecin allemand, praticien à Vratislavie, sa ville natale, puis au service des empereurs Ferdinand Ier et Maximilien II.
+Pierre Quthe (mort après 1588), apothicaire parisien dont le musée du Louvre détient un portrait peint par François Clouet en 1562.
+Vers 1519 : Sébastien Colin (mort dans les années 1570), médecin, auteur d'une Déclaration des abus et tromperies que font les apothicaires.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1519_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1519_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Magnus Hundt (en) (né en 1449), théologien, philosophe et médecin allemand, auteur de divers ouvrages en rapport avec la médecine[13], imprimés ensemble à Leipzig en 1501 par Wolfgang Stöckel[14],[15].
-2 mai : Léonard de Vinci (né en 1452), versé dans tous les arts et les sciences de son temps et « pionnier de l'anatomie comparée[16],[17] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Magnus Hundt (en) (né en 1449), théologien, philosophe et médecin allemand, auteur de divers ouvrages en rapport avec la médecine, imprimés ensemble à Leipzig en 1501 par Wolfgang Stöckel,.
+2 mai : Léonard de Vinci (né en 1452), versé dans tous les arts et les sciences de son temps et « pionnier de l'anatomie comparée, ».</t>
         </is>
       </c>
     </row>
